--- a/THRiskRegister.xlsx
+++ b/THRiskRegister.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88DF2CB6-EE79-491E-8972-9F9444FA3D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F2650-32F1-4F05-B780-A708B4071B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -78,7 +78,19 @@
     <t>Can't work at all over spring break</t>
   </si>
   <si>
-    <t>I will have time the next week to work</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I didn't have time to work but I will still be able to finish on time</t>
+  </si>
+  <si>
+    <t>Troubles with physics model will delay other parts</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Need a plan to mitigate this risk</t>
   </si>
 </sst>
 </file>
@@ -260,6 +272,9 @@
                 <c:pt idx="1">
                   <c:v>40</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -274,6 +289,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1509,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1503,7 +1521,7 @@
     <col min="5" max="5" width="12.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.265625" customWidth="1"/>
+    <col min="8" max="8" width="50.796875" customWidth="1"/>
     <col min="9" max="9" width="36.265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1577,21 +1595,40 @@
       <c r="E3" s="2">
         <v>45008</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>45018</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45021</v>
+      </c>
       <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D5" s="1">

--- a/THRiskRegister.xlsx
+++ b/THRiskRegister.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F2650-32F1-4F05-B780-A708B4071B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D4E292-04E0-42FC-BB1C-5C21328B5BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,10 @@
     <t>Troubles with physics model will delay other parts</t>
   </si>
   <si>
-    <t>O</t>
+    <t>M</t>
   </si>
   <si>
-    <t>Need a plan to mitigate this risk</t>
+    <t>I mitigated this by taking on the bulk of the physics task work this week</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1521,7 +1521,7 @@
     <col min="5" max="5" width="12.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.796875" customWidth="1"/>
+    <col min="8" max="8" width="57.73046875" customWidth="1"/>
     <col min="9" max="9" width="36.265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1622,7 +1622,9 @@
       <c r="E4" s="2">
         <v>45021</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>45028</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>

--- a/THRiskRegister.xlsx
+++ b/THRiskRegister.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D4E292-04E0-42FC-BB1C-5C21328B5BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B70E0-22BB-406E-BF07-BA9EBFBC1579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>I mitigated this by taking on the bulk of the physics task work this week</t>
+  </si>
+  <si>
+    <t>I have to present my demo early</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>I will plan to get ahead in case my demo is early</t>
   </si>
 </sst>
 </file>
@@ -275,6 +284,9 @@
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -292,6 +304,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,7 +1524,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1633,12 +1648,29 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45036</v>
+      </c>
       <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D6" s="1">

--- a/THRiskRegister.xlsx
+++ b/THRiskRegister.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B70E0-22BB-406E-BF07-BA9EBFBC1579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B367FA7-FDDE-43F3-B09B-9B6778E62491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Item</t>
   </si>
@@ -96,10 +96,7 @@
     <t>I have to present my demo early</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>I will plan to get ahead in case my demo is early</t>
+    <t>I finished early so I can now earn 5 bonus points with early demo</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1521,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1664,12 +1661,14 @@
       <c r="E5" s="2">
         <v>45036</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>45043</v>
+      </c>
       <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
